--- a/laravel-quiz/public/excel/cat.xlsx
+++ b/laravel-quiz/public/excel/cat.xlsx
@@ -449,16 +449,16 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/laravel-quiz/public/excel/cat.xlsx
+++ b/laravel-quiz/public/excel/cat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>User name</t>
   </si>
@@ -23,25 +23,22 @@
     <t>PZS kod</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
     <t>Category name</t>
   </si>
   <si>
-    <t>Počet Face-kategória-120-180 cm (úroveň očí)</t>
-  </si>
-  <si>
-    <t>Počet Face kategória-(mimo úroveň očí)</t>
-  </si>
-  <si>
-    <t>Počet Face( druhotné vystavenie)</t>
-  </si>
-  <si>
-    <t>Druhotné vystavenie (krátkodobé, dlhodobé)</t>
+    <t>Počet Face-kategóry celkem</t>
   </si>
   <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>N72194160301</t>
+    <t>P91151080301</t>
+  </si>
+  <si>
+    <t>nemocničná</t>
   </si>
   <si>
     <t>Nosná kategória</t>
@@ -398,31 +395,29 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.42578125" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.85546875" customWidth="true" style="0"/>
-    <col min="4" max="4" width="41.85546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="35.42578125" customWidth="true" style="0"/>
-    <col min="6" max="6" width="35.5703125" customWidth="true" style="0"/>
-    <col min="7" max="7" width="40.42578125" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.42578125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13" customWidth="true" style="0"/>
+    <col min="4" max="4" width="21.5703125" customWidth="true" style="0"/>
+    <col min="5" max="5" width="41.85546875" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -431,35 +426,21 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
+      <c r="E2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
